--- a/lab5/Опыты.xlsx
+++ b/lab5/Опыты.xlsx
@@ -5,19 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danii\Desktop\NSU\2 COURSE\OPP\Текущая лаба\lab5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danii\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD68953D-8C7D-448E-AA9E-7BE13987A26A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFEF6472-0F74-4117-9E42-18ACA4162A72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lapa1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -28,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>Количество процессов</t>
   </si>
@@ -44,12 +41,21 @@
   <si>
     <t>n=320</t>
   </si>
+  <si>
+    <t>Балансировка:</t>
+  </si>
+  <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -59,6 +65,13 @@
     </font>
     <font>
       <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -315,7 +328,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -347,6 +360,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1697,6 +1719,519 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Время</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" baseline="0"/>
+              <a:t> с учётом балансировки</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>С балансировкой</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="4"/>
+              <c:pt idx="0">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>2</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>4</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>8</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Lapa1!$K$3:$N$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>51.415646000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25.828500999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.970075</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.6001599999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B06F-4112-9489-BEEBB2A1278A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Без балансировки</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="4"/>
+              <c:pt idx="0">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>2</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>4</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>8</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Lapa1!$K$4:$N$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>51.415646000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>38.506258000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22.451974</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.023104999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B06F-4112-9489-BEEBB2A1278A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="291948415"/>
+        <c:axId val="291936895"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="291948415"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Количество процессов</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="291936895"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="291936895"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Время</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="291948415"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1817,6 +2352,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -3346,6 +3921,522 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -3481,94 +4572,43 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DDD17221-4329-5A5B-883F-54D68A46AE00}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Lapa1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="3">
-          <cell r="C3">
-            <v>1</v>
-          </cell>
-          <cell r="D3">
-            <v>85.917040999999998</v>
-          </cell>
-          <cell r="E3">
-            <v>1</v>
-          </cell>
-          <cell r="F3">
-            <v>100</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="C4">
-            <v>2</v>
-          </cell>
-          <cell r="D4">
-            <v>43.029457000000001</v>
-          </cell>
-          <cell r="E4">
-            <v>1.9967028865830214</v>
-          </cell>
-          <cell r="F4">
-            <v>99.835144329151078</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="C5">
-            <v>4</v>
-          </cell>
-          <cell r="D5">
-            <v>21.888227000000001</v>
-          </cell>
-          <cell r="E5">
-            <v>3.9252626994411193</v>
-          </cell>
-          <cell r="F5">
-            <v>98.131567486027976</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="C6">
-            <v>8</v>
-          </cell>
-          <cell r="D6">
-            <v>11.315555</v>
-          </cell>
-          <cell r="E6">
-            <v>7.592826069954147</v>
-          </cell>
-          <cell r="F6">
-            <v>94.910325874426832</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="C7">
-            <v>16</v>
-          </cell>
-          <cell r="D7">
-            <v>6.0909360000000001</v>
-          </cell>
-          <cell r="E7">
-            <v>14.105720532936152</v>
-          </cell>
-          <cell r="F7">
-            <v>88.160753330850952</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3834,10 +4874,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:H6"/>
+  <dimension ref="B1:N6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="P27" sqref="P27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3848,8 +4888,15 @@
     <col min="4" max="6" width="15.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K1" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+    </row>
+    <row r="2" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2" s="10"/>
       <c r="C2" s="11"/>
       <c r="D2" s="14" t="s">
@@ -3864,8 +4911,23 @@
       <c r="H2" s="16" t="s">
         <v>4</v>
       </c>
+      <c r="J2" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>2</v>
+      </c>
+      <c r="M2">
+        <v>4</v>
+      </c>
+      <c r="N2">
+        <v>8</v>
+      </c>
     </row>
-    <row r="3" spans="2:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="17" t="s">
         <v>0</v>
       </c>
@@ -3884,8 +4946,27 @@
         <v>100</v>
       </c>
       <c r="H3" s="16"/>
+      <c r="J3" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="K3">
+        <f>D3</f>
+        <v>51.415646000000002</v>
+      </c>
+      <c r="L3">
+        <f>D4</f>
+        <v>25.828500999999999</v>
+      </c>
+      <c r="M3">
+        <f>D5</f>
+        <v>12.970075</v>
+      </c>
+      <c r="N3">
+        <f>D6</f>
+        <v>6.6001599999999998</v>
+      </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B4" s="18"/>
       <c r="C4" s="12">
         <v>2</v>
@@ -3894,16 +4975,32 @@
         <v>25.828500999999999</v>
       </c>
       <c r="E4" s="1">
-        <f t="shared" ref="E4:E7" si="0">$D$3/D4</f>
+        <f t="shared" ref="E4:E6" si="0">$D$3/D4</f>
         <v>1.9906554391213027</v>
       </c>
       <c r="F4" s="6">
-        <f t="shared" ref="F4:F7" si="1">E4/C4*100</f>
+        <f t="shared" ref="F4:F6" si="1">E4/C4*100</f>
         <v>99.532771956065133</v>
       </c>
       <c r="H4" s="16"/>
+      <c r="J4" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="K4">
+        <f>K3</f>
+        <v>51.415646000000002</v>
+      </c>
+      <c r="L4">
+        <v>38.506258000000003</v>
+      </c>
+      <c r="M4">
+        <v>22.451974</v>
+      </c>
+      <c r="N4">
+        <v>12.023104999999999</v>
+      </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B5" s="18"/>
       <c r="C5" s="12">
         <v>4</v>
@@ -3920,7 +5017,7 @@
         <v>99.104372950811779</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B6" s="19"/>
       <c r="C6" s="13">
         <v>8</v>
@@ -3938,8 +5035,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="B3:B6"/>
+    <mergeCell ref="K1:N1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
